--- a/data-raw/cv_dxa_vo2.xlsx
+++ b/data-raw/cv_dxa_vo2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgz813\Desktop\R\exp_physiology_2024\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgz813\Desktop\R\cv_measurements\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141959B-3B40-4544-AF49-0132DA7AE478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21A561F-718A-47B5-AC95-61236FCF5B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BCE43502-471D-4EBA-A3AB-55DC81564581}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="30">
   <si>
     <t>FOR09</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>visit</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
 </sst>
 </file>
@@ -169,10 +178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6702C144-D254-4393-8D68-8D0ADEA8FD40}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -508,1347 +513,1560 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
         <v>70.1845</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4673.333333333333</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
         <v>70.379500000000007</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4278.5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>184</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1271.1400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
         <v>71.716999999999999</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4383.1670000000004</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>188</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1355.19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
         <v>73.0655</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4569.333333333333</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>188</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1219.52</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
         <v>72.123999999999995</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4438.166666666667</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>187</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1510.79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>59.508499999999998</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4008</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
         <v>59.9255</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4147.8</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>192</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1147.26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
         <v>60.031999999999996</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4060.8333333333335</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>191</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>996.47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
         <v>60.272999999999996</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4215.166666666667</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>195</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1066.03</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
         <v>59.027000000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4147.333333333333</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>199</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1076.6199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
         <v>57.18</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4118.166666666667</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
         <v>57.18</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4190.5</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>195</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>972.01</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
         <v>55.216999999999999</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4226</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>197</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>885.95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
         <v>55.945999999999998</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4444.5</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>194</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>861.23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
         <v>54.785499999999999</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>4274.666666666667</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>194</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1035.24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
         <v>71.153999999999996</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>4791</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
         <v>72.807500000000005</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>4575.666666666667</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>192</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1319.07</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
         <v>72.674000000000007</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4651.166666666667</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>188</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1381.8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
         <v>72.109000000000009</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>4880.333333333333</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>191</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1445.93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
         <v>72.224999999999994</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4597.333333333333</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>187</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1550.63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
         <v>60.826499999999996</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4831.833333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
         <v>60.682000000000002</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5084.166666666667</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>178</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>807.95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
         <v>60.710499999999996</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>5076.833333333333</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>181</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>869.85</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
         <v>61.128</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4898.666666666667</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>179</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>841.13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
         <v>59.733499999999999</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4829.5</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>182</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>869.48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
         <v>55.111000000000004</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>4150</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
         <v>55.59</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4378.166666666667</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>197</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1148.22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
         <v>54.871499999999997</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>4321.666666666667</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>197</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1114.3699999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
         <v>54.807499999999997</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4311.333333333333</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>193</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1101.3399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
         <v>53.891500000000001</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>4241.166666666667</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1094.24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
         <v>56.292000000000002</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3862.8333333333335</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
         <v>56.108000000000004</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>3655.1666666666665</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>169</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>931.56</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
         <v>56.775499999999994</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>3509.3333333333335</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>165</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>990.15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
         <v>57.204499999999996</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>3555.6666666666665</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
         <v>57.680500000000002</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>3625.8333333333335</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>170</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>992.08</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
         <v>64.935500000000005</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>4395</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
         <v>64.491500000000002</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>4403.666666666667</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>194</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1195.17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
         <v>66.134500000000003</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>4453.5</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>192</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1203.98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40">
         <v>65.785500000000013</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>4174.333333333333</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>195</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1178.3499999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41">
         <v>65.289999999999992</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>4258.666666666667</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>195</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1111.92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
         <v>68.436499999999995</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>4885.666666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43">
         <v>67.964500000000001</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>4897.166666666667</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>162</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>854.38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
         <v>67.811999999999998</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>4960.333333333333</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>161</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>921.17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45">
         <v>67.674000000000007</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>5050</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>169</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>915.76</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46">
         <v>67.19</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>4787.333333333333</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>172</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>981.93</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47">
         <v>58.496499999999997</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>4720.1666670000004</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48">
         <v>58.952500000000001</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>5005.333333333333</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>188</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>1031.26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
         <v>57.326000000000001</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>4752.333333333333</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>182</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>939.34</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
         <v>56.998500000000007</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>4659.833333333333</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>185</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1028.0999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51">
         <v>57.55</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>4899.166666666667</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>182</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>997.16</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52">
         <v>45.024999999999999</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>3204.1666666666665</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53">
         <v>44.805499999999995</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>2802.8333333333335</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>189</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>758.97</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54">
         <v>45.096500000000006</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>2778</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>186</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>729.05</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55">
         <v>44.838000000000001</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>2998.8333333333335</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>190</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>755.79</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56">
         <v>45.519000000000005</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>2818.5</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>185</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>740.99</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57">
         <v>44.555</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>2519</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58">
         <v>44.941000000000003</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>2547.6666666666665</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>187</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>685.45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59">
         <v>45.484999999999999</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>2504.3333333333335</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>183</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>763.33</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60">
         <v>46.185000000000002</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>2404</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>183</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>602.85</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61">
         <v>46.414999999999999</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>2648.3333333333335</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>188</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>715.32</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62">
         <v>42.427999999999997</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>2511.6666666666665</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63">
         <v>42.630499999999998</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>3086.833333</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>192</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64">
         <v>42.2425</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>2946.3333333333335</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>184</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65">
         <v>42.468999999999994</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>2984.1666666666665</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>188</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>682</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66">
         <v>42.01</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>3040.5</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>190</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>666</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67">
         <v>41.180500000000002</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68">
         <v>41.521500000000003</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>3069.6666666666665</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>189</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>523.38</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69">
         <v>43.179000000000002</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>3048.8333333333335</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>188</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>502.88</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70">
         <v>42.391500000000001</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>3027.6666666666665</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>186</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>526.98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71">
         <v>42.247500000000002</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>2949.5</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>189</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>562.83000000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -1856,556 +2074,658 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73">
         <v>39.347000000000001</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>2804.5</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>184</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>544.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74">
         <v>39.519999999999996</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>2586.3333333333335</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>180</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>563.42999999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75">
         <v>39.909500000000001</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>2666</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>181</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>590.12</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76">
         <v>39.959499999999998</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>2637</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>181</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>586</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77">
         <v>43.779499999999999</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>3117.3333333333335</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78">
         <v>43.962499999999999</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>3049.1666666666665</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>191</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>854.82</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>15</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79">
         <v>45.102000000000004</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>3051.6666666666665</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>188</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>875.89</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80">
         <v>45.152500000000003</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>3118</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>190</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>846</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81">
         <v>44.776499999999999</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>3067.1666666666665</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>188</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>873</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82">
         <v>46.738500000000002</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>3385.833333</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83">
         <v>46.445999999999998</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>3385.8333333333335</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>177</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>854.82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84">
         <v>46.513000000000005</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>3401</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>176</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>875.89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85">
         <v>46.491</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>3515.1666666666665</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>178</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86">
         <v>46.459499999999998</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>3672</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>178</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87">
         <v>42.54</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>3216.333333</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>17</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88">
         <v>44.039500000000004</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>3261.6666666666665</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>200</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>758.65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>17</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89">
         <v>43.606499999999997</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>3177</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>200</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>777.15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90">
         <v>43.448999999999998</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>3449.8333333333335</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>195</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>744.2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>17</v>
       </c>
       <c r="B91">
         <v>4</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91">
         <v>43.490499999999997</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>3329</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>198</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>714.53</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>18</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92">
         <v>45.68</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>3234</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>18</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93">
         <v>45.263999999999996</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>3336</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>181</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>769</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>18</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94">
         <v>45.421999999999997</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>3657</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>178</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>754.43</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>18</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95">
         <v>45.721999999999994</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>3425</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>180</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>767.54</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>18</v>
       </c>
       <c r="B96">
         <v>4</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96">
         <v>45.301000000000002</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>3509</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>181</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>671.98</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97">
         <v>57.3185</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>3733.166667</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98">
         <v>57.8855</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>3753.1666666666665</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>196</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>977.09</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99">
         <v>56.944000000000003</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>3897</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>199</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>1027.04</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>19</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100">
         <v>57.218000000000004</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>3382.5</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>194</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>1054.55</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>19</v>
       </c>
       <c r="B101">
         <v>4</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101">
         <v>58.195500000000003</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>3882.1666666666665</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>197</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>1117.8800000000001</v>
       </c>
     </row>
